--- a/Spell Planning.xlsx
+++ b/Spell Planning.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\curseforge\minecraft\Instances\Craft to Exile 2 [Resolution]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F3C569-6E94-4448-A030-A6AD608F3AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B26E76A-44EF-464E-84CF-639F4EE887DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23010" yWindow="360" windowWidth="21600" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42810" yWindow="540" windowWidth="21600" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Warrior" sheetId="1" r:id="rId1"/>
-    <sheet name="Mage" sheetId="2" r:id="rId2"/>
-    <sheet name="Archer" sheetId="3" r:id="rId3"/>
-    <sheet name="Cleric" sheetId="4" r:id="rId4"/>
-    <sheet name="Bard" sheetId="5" r:id="rId5"/>
+    <sheet name="Spell Trees" sheetId="1" r:id="rId1"/>
+    <sheet name="Arcanist" sheetId="6" r:id="rId2"/>
+    <sheet name="Witch Doctor" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,16 +27,208 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Level</t>
+  </si>
+  <si>
+    <t>Taunt</t>
+  </si>
+  <si>
+    <t>Pierce Armor</t>
+  </si>
+  <si>
+    <t>Guard Totem</t>
+  </si>
+  <si>
+    <t>Mana Totem</t>
+  </si>
+  <si>
+    <t>Damage Totem</t>
+  </si>
+  <si>
+    <t>Whirlwind</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Pull</t>
+  </si>
+  <si>
+    <t>Heal Totem</t>
+  </si>
+  <si>
+    <t>Warning Shout</t>
+  </si>
+  <si>
+    <t>Gong Strike</t>
+  </si>
+  <si>
+    <t>Heavy Swing</t>
+  </si>
+  <si>
+    <t>Berserk</t>
+  </si>
+  <si>
+    <t>Martyrdom</t>
+  </si>
+  <si>
+    <t>Black Hole</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>Draconic Blood</t>
+  </si>
+  <si>
+    <t>Vampiric Blood</t>
+  </si>
+  <si>
+    <t>Flame Weapon</t>
+  </si>
+  <si>
+    <t>Fire Nova</t>
+  </si>
+  <si>
+    <t>Meteor</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>Frost Dash</t>
+  </si>
+  <si>
+    <t>Chill Eruption</t>
+  </si>
+  <si>
+    <t>Chilling Field</t>
+  </si>
+  <si>
+    <t>Water Breathing</t>
+  </si>
+  <si>
+    <t>Mage Circle</t>
+  </si>
+  <si>
+    <t>Speed Field</t>
+  </si>
+  <si>
+    <t>Frost Armor</t>
+  </si>
+  <si>
+    <t>Frost Nova</t>
+  </si>
+  <si>
+    <t>Nourishment</t>
+  </si>
+  <si>
+    <t>Ice Storm</t>
+  </si>
+  <si>
+    <t>Fire Bombs</t>
+  </si>
+  <si>
+    <t>Invigorating Flames</t>
+  </si>
+  <si>
+    <t>Hunter's Mark</t>
+  </si>
+  <si>
+    <t>Poison Weapons</t>
+  </si>
+  <si>
+    <t>Hunter Potion</t>
+  </si>
+  <si>
+    <t>Fire Trap</t>
+  </si>
+  <si>
+    <t>Frost Trap</t>
+  </si>
+  <si>
+    <t>Smoke Bomb</t>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
+    <t>The Hunt</t>
+  </si>
+  <si>
+    <t>Backflip</t>
+  </si>
+  <si>
+    <t>Explosive Arrow</t>
+  </si>
+  <si>
+    <t>Poison Arrow</t>
+  </si>
+  <si>
+    <t>Charged Bolt/Arrow</t>
+  </si>
+  <si>
+    <t>Arrow Storm</t>
+  </si>
+  <si>
+    <t>Make Arrows</t>
+  </si>
+  <si>
+    <t>Poison Trap</t>
+  </si>
+  <si>
+    <t>Hymn of Vigor</t>
+  </si>
+  <si>
+    <t>Hymn of Perserverance</t>
+  </si>
+  <si>
+    <t>Hymn of Valor</t>
+  </si>
+  <si>
+    <t>Dissonance</t>
+  </si>
+  <si>
+    <t>Healing Aria</t>
+  </si>
+  <si>
+    <t>Inspiring Song</t>
+  </si>
+  <si>
+    <t>Consecutive Fifths</t>
+  </si>
+  <si>
+    <t>Glissando</t>
+  </si>
+  <si>
+    <t>Nocturne</t>
+  </si>
+  <si>
+    <t>Ritardando</t>
+  </si>
+  <si>
+    <t>Sonata</t>
+  </si>
+  <si>
+    <t>FIGHTER</t>
+  </si>
+  <si>
+    <t>ELEMENTALIST</t>
+  </si>
+  <si>
+    <t>HUNTER</t>
+  </si>
+  <si>
+    <t>MINSTREL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +238,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,11 +274,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,10 +560,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="1">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273C01DD-B089-4A63-93FC-EF0908B4D8E6}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB058A38-0AFB-4C67-B6FE-53B11A364C97}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,224 +1016,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4DE84C-5FE5-4E99-B456-562E0F4E3BB2}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD0596A-6CC5-45B1-97DC-19B972AB6F30}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60354B74-C83A-4E5C-8F56-36E19D491EBA}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BD804A-3474-4C93-BEEF-1521207A86B9}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>